--- a/results/average_daily_power_difference.xlsx
+++ b/results/average_daily_power_difference.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Power_Difference_kWh</t>
+          <t>Average_Power_Difference_kWh</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01904945233071082</v>
+        <v>-0.02087055190947901</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.021711703613575</v>
+        <v>-0.01759624256399867</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01934975240326348</v>
+        <v>-0.01945017772773499</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0197590744849912</v>
+        <v>-0.01920284630034192</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01766846703080248</v>
+        <v>-0.01815719945076584</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01674547387709354</v>
+        <v>-0.01983869068195191</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01284750506967432</v>
+        <v>-0.02520492942557406</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0120917188251191</v>
+        <v>-0.02472946980405903</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01007133074772705</v>
+        <v>-0.02894080248395816</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007505854859994613</v>
+        <v>-0.03125109036923869</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007210635678298128</v>
+        <v>-0.0301063001125299</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007121885834063454</v>
+        <v>-0.03104622350332408</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006688771692209218</v>
+        <v>-0.03163875476904776</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007233514448357943</v>
+        <v>-0.03031405573376156</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005079779679307769</v>
+        <v>-0.03323641115845236</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004176609480574579</v>
+        <v>-0.03450358384481567</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003564537879033169</v>
+        <v>-0.03410534400369042</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003909775562689878</v>
+        <v>-0.03424303982034807</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003637369421749397</v>
+        <v>-0.0349288044078678</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005817852906664584</v>
+        <v>-0.03266399232351216</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00413193327944342</v>
+        <v>-0.03520865359942775</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00439053391102122</v>
+        <v>-0.04190559823891658</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.006667528412222967</v>
+        <v>-0.04015022418190477</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009970717917287788</v>
+        <v>-0.0348690644430491</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02136538178041921</v>
+        <v>-0.02634927904125152</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03138880614970236</v>
+        <v>-0.02791455594558518</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04464541864637118</v>
+        <v>-0.0249289406555107</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06083682913591676</v>
+        <v>-0.02881591600489632</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.07552005744185378</v>
+        <v>-0.01490711382378546</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1038417069985578</v>
+        <v>0.02521704988865424</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1180235116282045</v>
+        <v>0.01033567963742272</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1342717932724995</v>
+        <v>-0.007054986831008533</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1553433642862923</v>
+        <v>0.0464537429038932</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1726098174112892</v>
+        <v>0.0745795453003909</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1907540213995159</v>
+        <v>0.1066265550781233</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2137305969408738</v>
+        <v>0.1238787412759959</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2391354123511023</v>
+        <v>0.1603834826810227</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2565505622827239</v>
+        <v>0.1795143225703496</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2696078707445849</v>
+        <v>0.183106659362994</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2778516197298304</v>
+        <v>0.1923492717639508</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2742041493528994</v>
+        <v>0.1953293991176881</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.291957821054223</v>
+        <v>0.2327974232625335</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3331787033287473</v>
+        <v>0.2782569321582625</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3325451623048384</v>
+        <v>0.2708755989337976</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3541795639110275</v>
+        <v>0.29323808706567</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3649280256099115</v>
+        <v>0.3123302553206279</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3819761473689833</v>
+        <v>0.3333432233755024</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3987007026689412</v>
+        <v>0.3548558582344029</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4035678223265592</v>
+        <v>0.3685020891830963</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.4221779945900678</v>
+        <v>0.3879353415025112</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4061082875518934</v>
+        <v>0.3687189680008663</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4087536383286853</v>
+        <v>0.3734582211916379</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4034503733500345</v>
+        <v>0.3674747541197393</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3991357382987735</v>
+        <v>0.3638905658274625</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4019916670557996</v>
+        <v>0.3719571328728251</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3663415776394306</v>
+        <v>0.3365671579519517</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3464824349556665</v>
+        <v>0.3090333312935126</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3313514795325694</v>
+        <v>0.2921851092537702</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3329972039851571</v>
+        <v>0.2998344763830659</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.332002428035293</v>
+        <v>0.3023395218349345</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3109099324524666</v>
+        <v>0.2800449673376773</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2878439732984046</v>
+        <v>0.2477112464386615</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2642567500266515</v>
+        <v>0.2209542100326093</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2469507990093529</v>
+        <v>0.1990119462615842</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2246207787243098</v>
+        <v>0.1732421263057838</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2106453995204618</v>
+        <v>0.160551552224542</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1878322224961433</v>
+        <v>0.1329198282257645</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1586422489004233</v>
+        <v>0.1027017119242294</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1402971326909272</v>
+        <v>0.0801298130712474</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1262128495534456</v>
+        <v>0.0546566618798375</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1115747509913456</v>
+        <v>0.03528592598356989</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.09391286438419652</v>
+        <v>0.01748895503353904</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.08368814327496779</v>
+        <v>0.01113473622800887</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.06953132128241203</v>
+        <v>-0.006992631172145747</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.05465296425781515</v>
+        <v>-0.03106047065821631</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.04299371243984915</v>
+        <v>-0.04343646119714246</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.03992042837752634</v>
+        <v>-0.04154077231783291</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02969293434302628</v>
+        <v>-0.06051920612455745</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02638247707097142</v>
+        <v>-0.07194123073178128</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02274843914150268</v>
+        <v>-0.08986224720042951</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02278499315979681</v>
+        <v>-0.09595584955191767</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02594273035650663</v>
+        <v>-0.08686500892689768</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02533253960282698</v>
+        <v>-0.08503826248624473</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0251788326105081</v>
+        <v>-0.08911750473590868</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02826041864775643</v>
+        <v>-0.09318512630690237</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02550068882161937</v>
+        <v>-0.09988249014179382</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02416588574052513</v>
+        <v>-0.08766382406135827</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02429371301271908</v>
+        <v>-0.09082332895184092</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02361159913074668</v>
+        <v>-0.09677319357378657</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02668278467244471</v>
+        <v>-0.07648085801723616</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02824074696405883</v>
+        <v>-0.04115494528960302</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.02780224234491392</v>
+        <v>-0.02612102128171408</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02343058548369211</v>
+        <v>-0.02122716508653947</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02087794713756105</v>
+        <v>-0.02036494067850043</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02286310964368821</v>
+        <v>-0.01720966539838387</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0216135826232013</v>
+        <v>-0.01802851441070774</v>
       </c>
     </row>
   </sheetData>

--- a/results/average_daily_power_difference.xlsx
+++ b/results/average_daily_power_difference.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02087055190947901</v>
+        <v>0.01910164261106893</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01759624256399867</v>
+        <v>0.02177118773306425</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01945017772773499</v>
+        <v>0.01940276542354639</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01920284630034192</v>
+        <v>0.01981320893563501</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01815719945076584</v>
+        <v>0.01960495555837967</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01983869068195191</v>
+        <v>0.01856838639870577</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02520492942557406</v>
+        <v>0.01436517986404343</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02472946980405903</v>
+        <v>0.01338569139812676</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02894080248395816</v>
+        <v>0.01012666772985742</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03125109036923869</v>
+        <v>0.007547095820763814</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0301063001125299</v>
+        <v>0.007250254555651414</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03104622350332408</v>
+        <v>0.007161017074909957</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03163875476904776</v>
+        <v>0.006707097094105682</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03031405573376156</v>
+        <v>0.007253332296161663</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03323641115845236</v>
+        <v>0.005093696883908612</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03450358384481567</v>
+        <v>0.004188052246274783</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03410534400369042</v>
+        <v>0.003574303736236</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03424303982034807</v>
+        <v>0.003920487276560261</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0349288044078678</v>
+        <v>0.003647334817425423</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03266399232351216</v>
+        <v>0.005833792229696542</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03520865359942775</v>
+        <v>0.004143253644592579</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04190559823891658</v>
+        <v>0.004402562771051415</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.04015022418190477</v>
+        <v>0.006685795613352344</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0348690644430491</v>
+        <v>0.009998034952677618</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02634927904125152</v>
+        <v>0.0214239170729683</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.02791455594558518</v>
+        <v>0.03147480287887962</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0249289406555107</v>
+        <v>0.0447677348618407</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.02881591600489632</v>
+        <v>0.06100350538012475</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.01490711382378546</v>
+        <v>0.07572696170881775</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02521704988865424</v>
+        <v>0.1041262048259511</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01033567963742272</v>
+        <v>0.1183468637148571</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.007054986831008533</v>
+        <v>0.1346396611992735</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0464537429038932</v>
+        <v>0.1557689625446109</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0745795453003909</v>
+        <v>0.1730827210206352</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1066265550781233</v>
+        <v>0.1912766351567749</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1238787412759959</v>
+        <v>0.2143161602201638</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1603834826810227</v>
+        <v>0.239790577864393</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1795143225703496</v>
+        <v>0.2572534405355532</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.183106659362994</v>
+        <v>0.270346522445255</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1923492717639508</v>
+        <v>0.2786128570441587</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1953293991176881</v>
+        <v>0.2749553935977019</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2327974232625335</v>
+        <v>0.2927577054954674</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2782569321582625</v>
+        <v>0.3340915216940316</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2708755989337976</v>
+        <v>0.33345624494129</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.29323808706567</v>
+        <v>0.3551499188806467</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3123302553206279</v>
+        <v>0.3659278284198017</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3333432233755024</v>
+        <v>0.3830226573617751</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3548558582344029</v>
+        <v>0.3997930333611849</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3685020891830963</v>
+        <v>0.4046734875932073</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3879353415025112</v>
+        <v>0.4233346466300406</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3687189680008663</v>
+        <v>0.4072209129972411</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3734582211916379</v>
+        <v>0.4098735113104077</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3674747541197393</v>
+        <v>0.4045557168386647</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3638905658274625</v>
+        <v>0.400229260869455</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3719571328728251</v>
+        <v>0.4030930140888291</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3365671579519517</v>
+        <v>0.3673452531946071</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3090333312935126</v>
+        <v>0.3474317019007505</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2921851092537702</v>
+        <v>0.3322592918052614</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2998344763830659</v>
+        <v>0.3339095250919657</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3023395218349345</v>
+        <v>0.3329120237285403</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2800449673376773</v>
+        <v>0.3117617404865829</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2477112464386615</v>
+        <v>0.2886325869238797</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2209542100326093</v>
+        <v>0.2649807411226149</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1990119462615842</v>
+        <v>0.2476273765408854</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1732421263057838</v>
+        <v>0.225236178118075</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.160551552224542</v>
+        <v>0.2112225102040795</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1329198282257645</v>
+        <v>0.1883468313248999</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1027017119242294</v>
+        <v>0.1590768851987806</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0801298130712474</v>
+        <v>0.1406815083969297</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0546566618798375</v>
+        <v>0.1265586381823592</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.03528592598356989</v>
+        <v>0.111880435240637</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01748895503353904</v>
+        <v>0.09417015990305733</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01113473622800887</v>
+        <v>0.08391742585928277</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.006992631172145747</v>
+        <v>0.06972181805304878</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.03106047065821631</v>
+        <v>0.0548026984064667</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.04343646119714246</v>
+        <v>0.04311150343283503</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.04154077231783291</v>
+        <v>0.04002979941417711</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.06051920612455745</v>
+        <v>0.02977428484807566</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.07194123073178128</v>
+        <v>0.02645475783006997</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.08986224720042951</v>
+        <v>0.02281076363230132</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.09595584955191767</v>
+        <v>0.02284741779859078</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.08686500892689768</v>
+        <v>0.0260138063300861</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.08503826248624473</v>
+        <v>0.02540194382091692</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.08911750473590868</v>
+        <v>0.02524781571355059</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.09318512630690237</v>
+        <v>0.02833784445227083</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.09988249014179382</v>
+        <v>0.02557055372250052</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.08766382406135827</v>
+        <v>0.02423209364666356</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.09082332895184092</v>
+        <v>0.02436027113056214</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.09677319357378657</v>
+        <v>0.02367628844343366</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.07648085801723616</v>
+        <v>0.02675588819209524</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.04115494528960302</v>
+        <v>0.0283181188735494</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.02612102128171408</v>
+        <v>0.02787841287188629</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.02122716508653947</v>
+        <v>0.02349477886857894</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.02036494067850043</v>
+        <v>0.02093514699273245</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.01720966539838387</v>
+        <v>0.02292574830024626</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.01802851441070774</v>
+        <v>0.02167279791805939</v>
       </c>
     </row>
   </sheetData>
